--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE631C-70D9-F64A-AB55-027655AFBE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF44AF-570D-B643-B123-1BC32FEF92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
@@ -35,21 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Generate subtasks for: {}. Respond in concise 100 words in numbered list of max 3.</t>
-  </si>
-  <si>
-    <t>Give a list of the subtasks that you can do: {}. Respond in concise 100 words in numbered list of max 3.</t>
-  </si>
-  <si>
-    <t>Pretend to be a {} that is doing task where I {}. Write about what your job would be in 100 words. For example, if I were an economist, I would write  I am an economist. I’m going to write a journal article that attempts to answer an economics research question that has implications for public policy. In order for it to be publishable, it should have sound empirical methods and add to an existing body of literature by providing novel insight. With that context, identify 3 candidates for empirical research questions that have to do with economic issues that I could write a scientific journal article about."</t>
-  </si>
-  <si>
-    <t>Please perform this for me as {}</t>
+    <t>Please perform this for me as {work_description}</t>
+  </si>
+  <si>
+    <t>Give a list of the subtasks that you can do: {task}. Respond in concise 100 words in numbered list of max 3.</t>
+  </si>
+  <si>
+    <t>Given that I am a {occupation} generate subtasks for: {task}. Respond in concise 100 words in numbered list of max 3.</t>
+  </si>
+  <si>
+    <t>Pretend to be a {occupation} that is doing task where I {real world subtask}. Write about what your job would be in 100 words. For example, if I were a teacher, please write "I am a middle school teacher. I need to make sure that for every lesson and student project there are clear learning objectives that can be communicated to my students. Can you please help me do this for my next lesson on Malcolm X’s role in the civil rights movement?"</t>
+  </si>
+  <si>
+    <t>What is a very specific real world example of {occupation}'s {subtask}?</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25BD773-1883-EF4C-B2DF-F3E89374ACDD}">
-  <dimension ref="B1:B5"/>
+  <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +426,7 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
@@ -431,14 +434,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
